--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H2">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N2">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O2">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P2">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q2">
-        <v>3959.291406461216</v>
+        <v>5618.555124514808</v>
       </c>
       <c r="R2">
-        <v>3959.291406461216</v>
+        <v>50566.99612063327</v>
       </c>
       <c r="S2">
-        <v>0.03797796216256849</v>
+        <v>0.04508269011517697</v>
       </c>
       <c r="T2">
-        <v>0.03797796216256849</v>
+        <v>0.04508269011517697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H3">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N3">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O3">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P3">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q3">
-        <v>1191.277469419683</v>
+        <v>1449.089824610563</v>
       </c>
       <c r="R3">
-        <v>1191.277469419683</v>
+        <v>13041.80842149507</v>
       </c>
       <c r="S3">
-        <v>0.01142686557117509</v>
+        <v>0.01162734298484179</v>
       </c>
       <c r="T3">
-        <v>0.01142686557117509</v>
+        <v>0.0116273429848418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H4">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N4">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O4">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P4">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q4">
-        <v>203.5825090981809</v>
+        <v>266.2334859247609</v>
       </c>
       <c r="R4">
-        <v>203.5825090981809</v>
+        <v>2396.101373322848</v>
       </c>
       <c r="S4">
-        <v>0.001952785999755941</v>
+        <v>0.00213622924012262</v>
       </c>
       <c r="T4">
-        <v>0.001952785999755941</v>
+        <v>0.002136229240122621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H5">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N5">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O5">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P5">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q5">
-        <v>205.2147196260611</v>
+        <v>248.9672090041199</v>
       </c>
       <c r="R5">
-        <v>205.2147196260611</v>
+        <v>2240.704881037079</v>
       </c>
       <c r="S5">
-        <v>0.001968442344112919</v>
+        <v>0.001997686466294569</v>
       </c>
       <c r="T5">
-        <v>0.001968442344112919</v>
+        <v>0.00199768646629457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H6">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N6">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O6">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P6">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q6">
-        <v>64.68864130388397</v>
+        <v>78.02699425486034</v>
       </c>
       <c r="R6">
-        <v>64.68864130388397</v>
+        <v>702.242948293743</v>
       </c>
       <c r="S6">
-        <v>0.000620500619827498</v>
+        <v>0.0006260803221921456</v>
       </c>
       <c r="T6">
-        <v>0.000620500619827498</v>
+        <v>0.0006260803221921457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H7">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N7">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O7">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P7">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q7">
-        <v>216.965141871782</v>
+        <v>278.8030096641945</v>
       </c>
       <c r="R7">
-        <v>216.965141871782</v>
+        <v>2509.22708697775</v>
       </c>
       <c r="S7">
-        <v>0.002081153697137841</v>
+        <v>0.002237085764813063</v>
       </c>
       <c r="T7">
-        <v>0.002081153697137841</v>
+        <v>0.002237085764813064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H8">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N8">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O8">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P8">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q8">
-        <v>1761.992592326926</v>
+        <v>2099.844516847506</v>
       </c>
       <c r="R8">
-        <v>1761.992592326926</v>
+        <v>18898.60065162756</v>
       </c>
       <c r="S8">
-        <v>0.01690122830891293</v>
+        <v>0.01684892958156472</v>
       </c>
       <c r="T8">
-        <v>0.01690122830891293</v>
+        <v>0.01684892958156473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H9">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N9">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O9">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P9">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q9">
-        <v>530.1509439537659</v>
+        <v>541.573991033998</v>
       </c>
       <c r="R9">
-        <v>530.1509439537659</v>
+        <v>4874.165919305982</v>
       </c>
       <c r="S9">
-        <v>0.005085266635607849</v>
+        <v>0.0043455322358048</v>
       </c>
       <c r="T9">
-        <v>0.005085266635607849</v>
+        <v>0.004345532235804803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H10">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N10">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O10">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P10">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q10">
-        <v>90.59976549665913</v>
+        <v>99.50047890089603</v>
       </c>
       <c r="R10">
-        <v>90.59976549665913</v>
+        <v>895.5043101080641</v>
       </c>
       <c r="S10">
-        <v>0.0008690429960155558</v>
+        <v>0.0007983812843676899</v>
       </c>
       <c r="T10">
-        <v>0.0008690429960155558</v>
+        <v>0.00079838128436769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H11">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N11">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O11">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P11">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q11">
-        <v>91.32614366992256</v>
+        <v>93.047485895633</v>
       </c>
       <c r="R11">
-        <v>91.32614366992256</v>
+        <v>837.4273730606971</v>
       </c>
       <c r="S11">
-        <v>0.0008760104959916615</v>
+        <v>0.0007466031532424213</v>
       </c>
       <c r="T11">
-        <v>0.0008760104959916615</v>
+        <v>0.0007466031532424217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H12">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N12">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O12">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P12">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q12">
-        <v>28.78820856659613</v>
+        <v>29.16133283756101</v>
       </c>
       <c r="R12">
-        <v>28.78820856659613</v>
+        <v>262.4519955380491</v>
       </c>
       <c r="S12">
-        <v>0.0002761396885023718</v>
+        <v>0.000233987440280712</v>
       </c>
       <c r="T12">
-        <v>0.0002761396885023718</v>
+        <v>0.000233987440280712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H13">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N13">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O13">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P13">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q13">
-        <v>96.55540184472785</v>
+        <v>104.19813602425</v>
       </c>
       <c r="R13">
-        <v>96.55540184472785</v>
+        <v>937.7832242182501</v>
       </c>
       <c r="S13">
-        <v>0.0009261701202054704</v>
+        <v>0.000836074786641161</v>
       </c>
       <c r="T13">
-        <v>0.0009261701202054704</v>
+        <v>0.0008360747866411613</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H14">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N14">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O14">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P14">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q14">
-        <v>19853.33242424507</v>
+        <v>26096.07498750004</v>
       </c>
       <c r="R14">
-        <v>19853.33242424507</v>
+        <v>234864.6748875004</v>
       </c>
       <c r="S14">
-        <v>0.1904353658784573</v>
+        <v>0.2093921365567238</v>
       </c>
       <c r="T14">
-        <v>0.1904353658784573</v>
+        <v>0.2093921365567238</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H15">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N15">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O15">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P15">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q15">
-        <v>5973.500099362813</v>
+        <v>6730.477122430319</v>
       </c>
       <c r="R15">
-        <v>5973.500099362813</v>
+        <v>60574.29410187287</v>
       </c>
       <c r="S15">
-        <v>0.05729847527299512</v>
+        <v>0.05400463423663865</v>
       </c>
       <c r="T15">
-        <v>0.05729847527299512</v>
+        <v>0.05400463423663868</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H16">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N16">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O16">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P16">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q16">
-        <v>1020.837017020832</v>
+        <v>1236.554391459506</v>
       </c>
       <c r="R16">
-        <v>1020.837017020832</v>
+        <v>11128.98952313555</v>
       </c>
       <c r="S16">
-        <v>0.009791981853949508</v>
+        <v>0.009921981222092964</v>
       </c>
       <c r="T16">
-        <v>0.009791981853949508</v>
+        <v>0.009921981222092965</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H17">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N17">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O17">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P17">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q17">
-        <v>1029.021516434913</v>
+        <v>1156.359030322972</v>
       </c>
       <c r="R17">
-        <v>1029.021516434913</v>
+        <v>10407.23127290675</v>
       </c>
       <c r="S17">
-        <v>0.009870488479796821</v>
+        <v>0.009278502154135027</v>
       </c>
       <c r="T17">
-        <v>0.009870488479796821</v>
+        <v>0.00927850215413503</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H18">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N18">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O18">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P18">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q18">
-        <v>324.3724616437472</v>
+        <v>362.4060364273647</v>
       </c>
       <c r="R18">
-        <v>324.3724616437472</v>
+        <v>3261.654327846282</v>
       </c>
       <c r="S18">
-        <v>0.003111416617322458</v>
+        <v>0.002907907580160176</v>
       </c>
       <c r="T18">
-        <v>0.003111416617322458</v>
+        <v>0.002907907580160177</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H19">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N19">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O19">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P19">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q19">
-        <v>1087.942422986232</v>
+        <v>1294.935100875389</v>
       </c>
       <c r="R19">
-        <v>1087.942422986232</v>
+        <v>11654.4159078785</v>
       </c>
       <c r="S19">
-        <v>0.01043566434837232</v>
+        <v>0.01039042183947103</v>
       </c>
       <c r="T19">
-        <v>0.01043566434837232</v>
+        <v>0.01039042183947104</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H20">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I20">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J20">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N20">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O20">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P20">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q20">
-        <v>23478.92005042509</v>
+        <v>28063.93926584648</v>
       </c>
       <c r="R20">
-        <v>23478.92005042509</v>
+        <v>252575.4533926184</v>
       </c>
       <c r="S20">
-        <v>0.2252124043807104</v>
+        <v>0.2251820707094264</v>
       </c>
       <c r="T20">
-        <v>0.2252124043807104</v>
+        <v>0.2251820707094265</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H21">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I21">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J21">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N21">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O21">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P21">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q21">
-        <v>7064.372280538134</v>
+        <v>7238.011895832171</v>
       </c>
       <c r="R21">
-        <v>7064.372280538134</v>
+        <v>65142.10706248954</v>
       </c>
       <c r="S21">
-        <v>0.06776224218675808</v>
+        <v>0.05807703940217988</v>
       </c>
       <c r="T21">
-        <v>0.06776224218675808</v>
+        <v>0.05807703940217992</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H22">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I22">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J22">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N22">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O22">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P22">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q22">
-        <v>1207.260836366012</v>
+        <v>1329.801027834944</v>
       </c>
       <c r="R22">
-        <v>1207.260836366012</v>
+        <v>11968.2092505145</v>
       </c>
       <c r="S22">
-        <v>0.01158017979910171</v>
+        <v>0.01067018233765281</v>
       </c>
       <c r="T22">
-        <v>0.01158017979910171</v>
+        <v>0.01067018233765281</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H23">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I23">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J23">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N23">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O23">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P23">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q23">
-        <v>1216.939977544411</v>
+        <v>1243.558259701562</v>
       </c>
       <c r="R23">
-        <v>1216.939977544411</v>
+        <v>11192.02433731406</v>
       </c>
       <c r="S23">
-        <v>0.01167302319447279</v>
+        <v>0.00997817951766302</v>
       </c>
       <c r="T23">
-        <v>0.01167302319447279</v>
+        <v>0.009978179517663027</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H24">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I24">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J24">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N24">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O24">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P24">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q24">
-        <v>383.6089040745873</v>
+        <v>389.7345099117541</v>
       </c>
       <c r="R24">
-        <v>383.6089040745873</v>
+        <v>3507.610589205786</v>
       </c>
       <c r="S24">
-        <v>0.00367961914103979</v>
+        <v>0.003127188351481958</v>
       </c>
       <c r="T24">
-        <v>0.00367961914103979</v>
+        <v>0.003127188351481959</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H25">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I25">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J25">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N25">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O25">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P25">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q25">
-        <v>1286.620937126166</v>
+        <v>1392.5841354145</v>
       </c>
       <c r="R25">
-        <v>1286.620937126166</v>
+        <v>12533.2572187305</v>
       </c>
       <c r="S25">
-        <v>0.01234141068475168</v>
+        <v>0.0111739473307428</v>
       </c>
       <c r="T25">
-        <v>0.01234141068475168</v>
+        <v>0.01117394733074281</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H26">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N26">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O26">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P26">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q26">
-        <v>20248.8132192772</v>
+        <v>24631.99840035258</v>
       </c>
       <c r="R26">
-        <v>20248.8132192772</v>
+        <v>221687.9856031732</v>
       </c>
       <c r="S26">
-        <v>0.1942288615138738</v>
+        <v>0.1976445413795821</v>
       </c>
       <c r="T26">
-        <v>0.1942288615138738</v>
+        <v>0.1976445413795821</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H27">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N27">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O27">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P27">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q27">
-        <v>6092.492947411612</v>
+        <v>6352.874974214472</v>
       </c>
       <c r="R27">
-        <v>6092.492947411612</v>
+        <v>57175.87476793025</v>
       </c>
       <c r="S27">
-        <v>0.05843986786497225</v>
+        <v>0.05097479466799863</v>
       </c>
       <c r="T27">
-        <v>0.05843986786497225</v>
+        <v>0.05097479466799866</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H28">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N28">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O28">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P28">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q28">
-        <v>1041.172214481012</v>
+        <v>1167.179578038813</v>
       </c>
       <c r="R28">
-        <v>1041.172214481012</v>
+        <v>10504.61620234931</v>
       </c>
       <c r="S28">
-        <v>0.009987039322680094</v>
+        <v>0.009365325080801939</v>
       </c>
       <c r="T28">
-        <v>0.009987039322680094</v>
+        <v>0.009365325080801941</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H29">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N29">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O29">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P29">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q29">
-        <v>1049.519750118235</v>
+        <v>1091.483443345109</v>
       </c>
       <c r="R29">
-        <v>1049.519750118235</v>
+        <v>9823.350990105975</v>
       </c>
       <c r="S29">
-        <v>0.01006710981005664</v>
+        <v>0.008757947328393099</v>
       </c>
       <c r="T29">
-        <v>0.01006710981005664</v>
+        <v>0.008757947328393105</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H30">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N30">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O30">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P30">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q30">
-        <v>330.8340005066505</v>
+        <v>342.0738526323547</v>
       </c>
       <c r="R30">
-        <v>330.8340005066505</v>
+        <v>3078.664673691192</v>
       </c>
       <c r="S30">
-        <v>0.003173396414527291</v>
+        <v>0.002744764294905961</v>
       </c>
       <c r="T30">
-        <v>0.003173396414527291</v>
+        <v>0.002744764294905961</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H31">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N31">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O31">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P31">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q31">
-        <v>1109.614368289799</v>
+        <v>1222.284935516222</v>
       </c>
       <c r="R31">
-        <v>1109.614368289799</v>
+        <v>11000.564419646</v>
       </c>
       <c r="S31">
-        <v>0.01064354405063039</v>
+        <v>0.009807484621784397</v>
       </c>
       <c r="T31">
-        <v>0.01064354405063039</v>
+        <v>0.0098074846217844</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H32">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N32">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O32">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P32">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q32">
-        <v>1364.314687759791</v>
+        <v>1683.114188010493</v>
       </c>
       <c r="R32">
-        <v>1364.314687759791</v>
+        <v>15148.02769209444</v>
       </c>
       <c r="S32">
-        <v>0.01308665775522915</v>
+        <v>0.01350512964364434</v>
       </c>
       <c r="T32">
-        <v>0.01308665775522915</v>
+        <v>0.01350512964364435</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H33">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N33">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O33">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P33">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q33">
-        <v>410.4970263300849</v>
+        <v>434.0944583531688</v>
       </c>
       <c r="R33">
-        <v>410.4970263300849</v>
+        <v>3906.85012517852</v>
       </c>
       <c r="S33">
-        <v>0.003937532990971463</v>
+        <v>0.003483127870591371</v>
       </c>
       <c r="T33">
-        <v>0.003937532990971463</v>
+        <v>0.003483127870591373</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H34">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N34">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O34">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P34">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q34">
-        <v>70.15159502540655</v>
+        <v>79.75384196700445</v>
       </c>
       <c r="R34">
-        <v>70.15159502540655</v>
+        <v>717.7845777030401</v>
       </c>
       <c r="S34">
-        <v>0.000672901877636729</v>
+        <v>0.0006399363649927255</v>
       </c>
       <c r="T34">
-        <v>0.000672901877636729</v>
+        <v>0.0006399363649927257</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H35">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N35">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O35">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P35">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q35">
-        <v>70.71403122120387</v>
+        <v>74.58149515982444</v>
       </c>
       <c r="R35">
-        <v>70.71403122120387</v>
+        <v>671.23345643842</v>
       </c>
       <c r="S35">
-        <v>0.0006782968279876912</v>
+        <v>0.0005984340030671658</v>
       </c>
       <c r="T35">
-        <v>0.0006782968279876912</v>
+        <v>0.0005984340030671662</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H36">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N36">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O36">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P36">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q36">
-        <v>22.29077236348102</v>
+        <v>23.37404157612667</v>
       </c>
       <c r="R36">
-        <v>22.29077236348102</v>
+        <v>210.36637418514</v>
       </c>
       <c r="S36">
-        <v>0.0002138155600300602</v>
+        <v>0.0001875508293080562</v>
       </c>
       <c r="T36">
-        <v>0.0002138155600300602</v>
+        <v>0.0001875508293080562</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H37">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N37">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O37">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P37">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q37">
-        <v>74.76305717343732</v>
+        <v>83.51921282722222</v>
       </c>
       <c r="R37">
-        <v>74.76305717343732</v>
+        <v>751.6729154450001</v>
       </c>
       <c r="S37">
-        <v>0.0007171355338627461</v>
+        <v>0.0006701493012188472</v>
       </c>
       <c r="T37">
-        <v>0.0007171355338627461</v>
+        <v>0.0006701493012188475</v>
       </c>
     </row>
   </sheetData>
